--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayala\Documents\GitHub\task1_oxygen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF077A-050A-491A-BB4E-762A065FA890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1A1B3-C10C-4B79-952E-483C268D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,32 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>menu_list</t>
+  </si>
+  <si>
+    <t>Java HOME</t>
+  </si>
+  <si>
+    <t>Java Intro</t>
+  </si>
+  <si>
+    <t>list_output</t>
+  </si>
+  <si>
+    <t>phone,</t>
+  </si>
+  <si>
+    <t>Tony,</t>
+  </si>
+  <si>
+    <t>0523539924,</t>
+  </si>
+  <si>
+    <t>Josh,</t>
+  </si>
+  <si>
+    <t>0548819925,</t>
+  </si>
+  <si>
+    <t>Tiffany,</t>
+  </si>
+  <si>
+    <t>0518853395,</t>
+  </si>
+  <si>
+    <t>print text</t>
+  </si>
+  <si>
+    <t>print numbers</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
+    <t>o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,10 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,57 +410,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayala\Documents\GitHub\task1_oxygen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1A1B3-C10C-4B79-952E-483C268D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10188B-44E2-4E55-B88A-C1C9FE66EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,9 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
